--- a/data/template/Custom2_work_objective_counts.xlsx
+++ b/data/template/Custom2_work_objective_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB017DDD-1E8F-46B0-8B66-E5B451C20B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D56FEF-F647-4DB6-8FE6-15BAE86F278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">员工姓名：                               部门：                                   职位：工程师                                                   </t>
+    <t xml:space="preserve">员工姓名：                               部门：                                   职位：                                                  </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -986,6 +986,189 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,189 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,7 +1511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,251 +1524,251 @@
   <dimension ref="A1:IG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+      <selection activeCell="B3" sqref="B3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
-    <col min="9" max="17" width="3.3984375" style="3" customWidth="1"/>
-    <col min="18" max="20" width="3.19921875" style="3" customWidth="1"/>
+    <col min="9" max="17" width="3.375" style="3" customWidth="1"/>
+    <col min="18" max="20" width="3.1875" style="3" customWidth="1"/>
     <col min="21" max="200" width="9" style="4"/>
     <col min="201" max="241" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="2:20" s="1" customFormat="1" ht="57" customHeight="1">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="92"/>
     </row>
     <row r="5" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="92" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="2:20" s="1" customFormat="1">
-      <c r="B7" s="48"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="63"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="76"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="2:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="81"/>
-    </row>
-    <row r="9" spans="2:20" s="1" customFormat="1" ht="40.950000000000003" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="86" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="2:20" s="1" customFormat="1" ht="41" customHeight="1">
+      <c r="B9" s="54"/>
+      <c r="C9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="81"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1776,26 +1776,26 @@
       <c r="H10" s="10">
         <v>0.05</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="81"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1803,26 +1803,26 @@
       <c r="H11" s="10">
         <v>0.05</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="81"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1830,26 +1830,26 @@
       <c r="H12" s="10">
         <v>0.05</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="81"/>
-    </row>
-    <row r="13" spans="2:20" s="1" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B13" s="50"/>
-      <c r="C13" s="89" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="2:20" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="B13" s="54"/>
+      <c r="C13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1857,107 +1857,107 @@
       <c r="H13" s="10">
         <v>0.05</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="81"/>
-    </row>
-    <row r="14" spans="2:20" s="1" customFormat="1" ht="22.95" customHeight="1">
-      <c r="B14" s="32" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="2:20" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="B14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15" spans="2:20" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B15" s="48" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="2:20" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="B15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="60" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="81"/>
     </row>
     <row r="16" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="35" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="s">
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35" t="s">
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35" t="s">
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-    </row>
-    <row r="17" spans="2:20" s="1" customFormat="1" ht="24">
+      <c r="S16" s="78"/>
+      <c r="T16" s="79"/>
+    </row>
+    <row r="17" spans="2:20" s="1" customFormat="1" ht="25.5">
       <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="2:20" s="1" customFormat="1" ht="24">
+    <row r="18" spans="2:20" s="1" customFormat="1" ht="25.5">
       <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1990,259 +1990,261 @@
       <c r="D18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="79"/>
     </row>
     <row r="19" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="13">
         <v>1</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="74"/>
     </row>
     <row r="20" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="55"/>
-    </row>
-    <row r="21" spans="2:20" s="1" customFormat="1" ht="28.95" customHeight="1">
-      <c r="B21" s="56" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+    </row>
+    <row r="21" spans="2:20" s="1" customFormat="1" ht="29" customHeight="1">
+      <c r="B21" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="61"/>
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="67"/>
     </row>
     <row r="23" spans="2:20" s="1" customFormat="1">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="67"/>
     </row>
     <row r="24" spans="2:20" s="1" customFormat="1">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="67"/>
     </row>
     <row r="25" spans="2:20" s="1" customFormat="1">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="67"/>
     </row>
     <row r="26" spans="2:20" s="1" customFormat="1">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="67"/>
-    </row>
-    <row r="27" spans="2:20" ht="22.95" customHeight="1">
-      <c r="B27" s="44" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
+    </row>
+    <row r="27" spans="2:20" ht="23" customHeight="1">
+      <c r="B27" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I6:T7"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="I8:T13"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B14:T14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="I15:T15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="B27:T27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -2259,23 +2261,21 @@
     <mergeCell ref="D22:T26"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I19:T19"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="I15:T15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I6:T7"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="I8:T13"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B14:T14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.11811023622047245" bottom="7.874015748031496E-2" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/data/template/Custom2_work_objective_counts.xlsx
+++ b/data/template/Custom2_work_objective_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D56FEF-F647-4DB6-8FE6-15BAE86F278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FDBB1D-9565-4A21-8732-04044D58C232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>有效期：</t>
   </si>
@@ -111,37 +111,7 @@
     <t>关键指标</t>
   </si>
   <si>
-    <t>中心部长关键指标直接承接中心关键指标，已签订中心《目标责任书》的，可不用重复填写</t>
-  </si>
-  <si>
     <t>按年度考核</t>
-  </si>
-  <si>
-    <t>职能部门主管根据部门KPI指标，结合 BSC 的四大纬度（财务类指标、内部运营指标、客户类指标、学习成长指标）进行关键指标的设置。原则上为3-4项。</t>
-  </si>
-  <si>
-    <t>举例：1、财务类指标（培训费用预算达成率）</t>
-  </si>
-  <si>
-    <t>90%≦实际培训费/年度培训费预算≦100%</t>
-  </si>
-  <si>
-    <t>2、内部运营指标（人员编制管控率）</t>
-  </si>
-  <si>
-    <t>实际编制/计划编制≦100%</t>
-  </si>
-  <si>
-    <t>3、客户指标（高效服务，提升满意度）</t>
-  </si>
-  <si>
-    <t>全年合理投诉≤2次</t>
-  </si>
-  <si>
-    <t>4、学习成长指标（主动学习，提升专业能力）</t>
-  </si>
-  <si>
-    <t>参加专业培训2次，外训后一月内形成内部课件进行分享</t>
   </si>
   <si>
     <t>第二部分 项目/任务（全员均需填写,请参考部门《项目任务统计表》，填写内容需覆盖个人全年参与的项目/任务，并与项目牵头人做好确认）</t>
@@ -239,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -282,28 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -329,14 +277,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="3" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,6 +334,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -926,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -938,53 +885,152 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,6 +1038,39 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,10 +1083,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,176 +1110,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,9 +1434,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1521,343 +1444,361 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IG27"/>
+  <dimension ref="A1:IG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:T3"/>
+      <selection activeCell="B4" sqref="B4:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
-    <col min="9" max="17" width="3.375" style="3" customWidth="1"/>
-    <col min="18" max="20" width="3.1875" style="3" customWidth="1"/>
+    <col min="9" max="17" width="3.3984375" style="3" customWidth="1"/>
+    <col min="18" max="20" width="3.19921875" style="3" customWidth="1"/>
     <col min="21" max="200" width="9" style="4"/>
     <col min="201" max="241" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B1" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-    </row>
-    <row r="2" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B2" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-    </row>
-    <row r="3" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B3" s="87" t="s">
+    <row r="1" spans="2:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+    </row>
+    <row r="2" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89"/>
-    </row>
-    <row r="4" spans="2:20" s="1" customFormat="1" ht="57" customHeight="1">
-      <c r="B4" s="90" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="2:20" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="92"/>
-    </row>
-    <row r="5" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B5" s="38" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B6" s="51" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24"/>
-    </row>
-    <row r="7" spans="2:20" s="1" customFormat="1">
-      <c r="B7" s="52"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="2:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="53" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="70"/>
+    </row>
+    <row r="8" spans="2:20" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="75"/>
+    </row>
+    <row r="9" spans="2:20" s="1" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="2:20" s="1" customFormat="1" ht="41" customHeight="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+    </row>
+    <row r="10" spans="2:20" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-    </row>
-    <row r="10" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="44" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+    </row>
+    <row r="11" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I11" s="29"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="L11" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="O11" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="R11" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="54"/>
-      <c r="C12" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
+    <row r="12" spans="2:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-    </row>
-    <row r="13" spans="2:20" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="54"/>
-      <c r="C13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="8" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="2:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I13" s="29"/>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -1870,205 +1811,179 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="2:20" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="B14" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
-    </row>
-    <row r="15" spans="2:20" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="B15" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="36" t="s">
+    <row r="14" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="66"/>
+    </row>
+    <row r="15" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="2:20" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="81"/>
-    </row>
-    <row r="16" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B16" s="53"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="78" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
+    </row>
+    <row r="17" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="78"/>
-      <c r="T16" s="79"/>
-    </row>
-    <row r="17" spans="2:20" s="1" customFormat="1" ht="25.5">
-      <c r="B17" s="11" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="59"/>
+    </row>
+    <row r="19" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
-    </row>
-    <row r="18" spans="2:20" s="1" customFormat="1" ht="25.5">
-      <c r="B18" s="11" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
+    </row>
+    <row r="20" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="59"/>
+    </row>
+    <row r="21" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="79"/>
-    </row>
-    <row r="19" spans="2:20" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="13">
-        <v>1</v>
-      </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
-    </row>
-    <row r="20" spans="2:20" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-    </row>
-    <row r="21" spans="2:20" s="1" customFormat="1" ht="29" customHeight="1">
-      <c r="B21" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60" t="s">
-        <v>35</v>
-      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -2086,196 +2001,73 @@
       <c r="S21" s="60"/>
       <c r="T21" s="61"/>
     </row>
-    <row r="22" spans="2:20" s="1" customFormat="1">
-      <c r="B22" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="67"/>
-    </row>
-    <row r="23" spans="2:20" s="1" customFormat="1">
-      <c r="B23" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="67"/>
-    </row>
-    <row r="24" spans="2:20" s="1" customFormat="1">
-      <c r="B24" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="67"/>
-    </row>
-    <row r="25" spans="2:20" s="1" customFormat="1">
-      <c r="B25" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="67"/>
-    </row>
-    <row r="26" spans="2:20" s="1" customFormat="1">
-      <c r="B26" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69"/>
-    </row>
-    <row r="27" spans="2:20" ht="23" customHeight="1">
-      <c r="B27" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="50"/>
+    <row r="22" spans="2:20" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="42">
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I6:T7"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:T16"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D17:T21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I14:T14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="I10:T10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B5:T5"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="I15:T15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="B27:T27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B20:T20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:T21"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D22:T26"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:T19"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I6:T7"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="I8:T13"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B14:T14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.11811023622047245" bottom="7.874015748031496E-2" header="0.51181102362204722" footer="0.51181102362204722"/>
